--- a/heat_control/Finances.xlsx
+++ b/heat_control/Finances.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Bastien</t>
   </si>
@@ -39,6 +39,21 @@
   </si>
   <si>
     <t xml:space="preserve">Total : </t>
+  </si>
+  <si>
+    <t>Contribution de départ</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Alim</t>
+  </si>
+  <si>
+    <t>Radiateurs + ethernet</t>
+  </si>
+  <si>
+    <t>Gaine + sonde temp + ethernet</t>
   </si>
 </sst>
 </file>
@@ -375,12 +390,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.140625" customWidth="1"/>
   </cols>
@@ -412,6 +428,9 @@
       <c r="D2" s="1">
         <v>60</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -420,6 +439,9 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -428,6 +450,9 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -436,6 +461,9 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -444,6 +472,9 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
